--- a/raw-data-prep/raw_data/Writing_Task_Evaluation_TG.xlsx
+++ b/raw-data-prep/raw_data/Writing_Task_Evaluation_TG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="17235" windowHeight="11250"/>
@@ -11,45 +11,48 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$125</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Subject</t>
   </si>
   <si>
-    <t>A</t>
+    <t>278 B</t>
   </si>
   <si>
-    <t>B</t>
+    <t>278 A</t>
   </si>
   <si>
-    <t>C</t>
+    <t>rating1</t>
   </si>
   <si>
-    <t>D</t>
+    <t>rating2</t>
   </si>
   <si>
-    <t>E</t>
+    <t>rating3</t>
   </si>
   <si>
-    <t>F</t>
+    <t>rating4</t>
   </si>
   <si>
-    <t>-</t>
+    <t>rating5</t>
   </si>
   <si>
-    <t>278 B</t>
+    <t>rating6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,6 +237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,43 +413,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>183</v>
       </c>
@@ -467,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>184</v>
       </c>
@@ -490,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>185</v>
       </c>
@@ -513,7 +518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>186</v>
       </c>
@@ -536,7 +541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>187</v>
       </c>
@@ -559,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>188</v>
       </c>
@@ -582,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>189</v>
       </c>
@@ -605,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>190</v>
       </c>
@@ -628,7 +633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>191</v>
       </c>
@@ -651,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>192</v>
       </c>
@@ -674,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>193</v>
       </c>
@@ -697,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>194</v>
       </c>
@@ -720,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>195</v>
       </c>
@@ -743,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>196</v>
       </c>
@@ -766,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>198</v>
       </c>
@@ -789,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>199</v>
       </c>
@@ -812,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>200</v>
       </c>
@@ -835,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>201</v>
       </c>
@@ -858,7 +863,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>202</v>
       </c>
@@ -881,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>203</v>
       </c>
@@ -904,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>204</v>
       </c>
@@ -927,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>205</v>
       </c>
@@ -950,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>206</v>
       </c>
@@ -973,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>207</v>
       </c>
@@ -996,7 +1001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>208</v>
       </c>
@@ -1019,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>209</v>
       </c>
@@ -1042,7 +1047,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>210</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>211</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>212</v>
       </c>
@@ -1111,7 +1116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>213</v>
       </c>
@@ -1134,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>214</v>
       </c>
@@ -1157,7 +1162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>215</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>217</v>
       </c>
@@ -1203,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>218</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>219</v>
       </c>
@@ -1249,7 +1254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>220</v>
       </c>
@@ -1272,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>221</v>
       </c>
@@ -1295,7 +1300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>222</v>
       </c>
@@ -1318,7 +1323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>223</v>
       </c>
@@ -1341,7 +1346,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>224</v>
       </c>
@@ -1364,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>225</v>
       </c>
@@ -1387,7 +1392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>226</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>227</v>
       </c>
@@ -1433,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>228</v>
       </c>
@@ -1456,30 +1461,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>229</v>
       </c>
       <c r="B46">
         <v>-4</v>
       </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
       <c r="F46">
         <v>-10</v>
       </c>
-      <c r="G46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>230</v>
       </c>
@@ -1502,7 +1495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>231</v>
       </c>
@@ -1525,7 +1518,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>232</v>
       </c>
@@ -1548,7 +1541,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>233</v>
       </c>
@@ -1571,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>234</v>
       </c>
@@ -1594,7 +1587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>235</v>
       </c>
@@ -1617,7 +1610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>236</v>
       </c>
@@ -1640,7 +1633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>237</v>
       </c>
@@ -1663,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>238</v>
       </c>
@@ -1686,7 +1679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>239</v>
       </c>
@@ -1709,7 +1702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>240</v>
       </c>
@@ -1732,7 +1725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>241</v>
       </c>
@@ -1755,7 +1748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>242</v>
       </c>
@@ -1778,7 +1771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>243</v>
       </c>
@@ -1801,7 +1794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>244</v>
       </c>
@@ -1824,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>245</v>
       </c>
@@ -1847,7 +1840,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>246</v>
       </c>
@@ -1870,7 +1863,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>247</v>
       </c>
@@ -1893,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>248</v>
       </c>
@@ -1916,7 +1909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>249</v>
       </c>
@@ -1939,7 +1932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>250</v>
       </c>
@@ -1962,7 +1955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>251</v>
       </c>
@@ -1985,7 +1978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>252</v>
       </c>
@@ -2008,7 +2001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>253</v>
       </c>
@@ -2031,7 +2024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>254</v>
       </c>
@@ -2054,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>255</v>
       </c>
@@ -2077,7 +2070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>256</v>
       </c>
@@ -2100,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>257</v>
       </c>
@@ -2123,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>258</v>
       </c>
@@ -2146,7 +2139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>259</v>
       </c>
@@ -2169,7 +2162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>260</v>
       </c>
@@ -2192,7 +2185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>261</v>
       </c>
@@ -2215,7 +2208,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>262</v>
       </c>
@@ -2235,7 +2228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>263</v>
       </c>
@@ -2258,7 +2251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>264</v>
       </c>
@@ -2281,7 +2274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>265</v>
       </c>
@@ -2304,7 +2297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>266</v>
       </c>
@@ -2327,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>267</v>
       </c>
@@ -2350,7 +2343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>268</v>
       </c>
@@ -2373,7 +2366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>269</v>
       </c>
@@ -2396,7 +2389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>270</v>
       </c>
@@ -2419,7 +2412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>271</v>
       </c>
@@ -2442,7 +2435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>272</v>
       </c>
@@ -2465,7 +2458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>273</v>
       </c>
@@ -2488,7 +2481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>274</v>
       </c>
@@ -2511,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>275</v>
       </c>
@@ -2534,7 +2527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>276</v>
       </c>
@@ -2557,7 +2550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>277</v>
       </c>
@@ -2580,9 +2573,9 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="1">
-        <v>278</v>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B95" s="1">
         <v>6</v>
@@ -2603,9 +2596,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1">
         <v>-8</v>
@@ -2626,7 +2619,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>279</v>
       </c>
@@ -2649,7 +2642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>281</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>282</v>
       </c>
@@ -2695,7 +2688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>283</v>
       </c>
@@ -2718,7 +2711,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>284</v>
       </c>
@@ -2741,7 +2734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>285</v>
       </c>
@@ -2764,7 +2757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>286</v>
       </c>
@@ -2787,7 +2780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>287</v>
       </c>
@@ -2810,7 +2803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>288</v>
       </c>
@@ -2833,7 +2826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>289</v>
       </c>
@@ -2856,7 +2849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>290</v>
       </c>
@@ -2879,7 +2872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>291</v>
       </c>
@@ -2902,7 +2895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>292</v>
       </c>
@@ -2925,7 +2918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>293</v>
       </c>
@@ -2948,7 +2941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>294</v>
       </c>
@@ -2971,7 +2964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>295</v>
       </c>
@@ -2994,7 +2987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>296</v>
       </c>
@@ -3017,7 +3010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>297</v>
       </c>
@@ -3040,7 +3033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>298</v>
       </c>
@@ -3063,7 +3056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>299</v>
       </c>
@@ -3086,7 +3079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>300</v>
       </c>
@@ -3109,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>301</v>
       </c>
@@ -3132,7 +3125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>302</v>
       </c>
@@ -3155,7 +3148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>303</v>
       </c>
@@ -3178,7 +3171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>304</v>
       </c>
@@ -3201,7 +3194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>305</v>
       </c>
@@ -3224,7 +3217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>306</v>
       </c>
@@ -3247,7 +3240,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>307</v>
       </c>
@@ -3270,7 +3263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>308</v>
       </c>
@@ -3294,29 +3287,30 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G125"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
